--- a/data/final_data/de-identified_data.xlsx
+++ b/data/final_data/de-identified_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahgross/Desktop/W241/Final Project/Olive_Oil_Taste_Test/data/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404675D3-BDA0-2046-8A02-DDA7FDA77611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8878DA2-FF43-3F42-883E-67340BFEB32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="48">
   <si>
     <t>admin</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>sex</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Burundi</t>
   </si>
 </sst>
 </file>
@@ -541,18 +547,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" customWidth="1"/>
@@ -560,16 +566,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
@@ -604,16 +610,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
@@ -648,16 +654,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
@@ -692,16 +698,16 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
@@ -736,16 +742,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
@@ -780,16 +786,16 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
@@ -824,16 +830,16 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
@@ -868,16 +874,16 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
@@ -912,16 +918,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
@@ -956,13 +962,16 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
@@ -997,16 +1006,16 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
@@ -1041,16 +1050,16 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
@@ -1085,16 +1094,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
@@ -1129,13 +1138,16 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
@@ -1170,16 +1182,16 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
@@ -1214,16 +1226,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="s">
@@ -1258,13 +1270,16 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="s">
@@ -1299,13 +1314,16 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="s">
@@ -1340,13 +1358,16 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
@@ -1381,13 +1402,16 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E20" t="s">
@@ -1422,13 +1446,16 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
@@ -1463,16 +1490,16 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
@@ -1507,16 +1534,16 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E23" t="s">
@@ -1551,12 +1578,16 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="J24" t="s">
         <v>14</v>
       </c>
@@ -1565,12 +1596,16 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="J25" t="s">
         <v>14</v>
       </c>
@@ -1579,12 +1614,16 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="J26" t="s">
         <v>13</v>
       </c>
@@ -1593,12 +1632,16 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="J27" t="s">
         <v>13</v>
       </c>
@@ -1607,16 +1650,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E28" t="s">
@@ -1651,16 +1694,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E29" t="s">
@@ -1695,16 +1738,16 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" t="s">
@@ -1739,16 +1782,16 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E31" t="s">
@@ -1783,16 +1826,16 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E32" t="s">
@@ -1827,16 +1870,16 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
@@ -1871,16 +1914,16 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E34" t="s">
@@ -1915,16 +1958,16 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E35" t="s">
@@ -1959,16 +2002,16 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E36" t="s">
@@ -2003,16 +2046,16 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E37" t="s">
@@ -2047,16 +2090,16 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E38" t="s">
@@ -2091,16 +2134,16 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E39" t="s">
@@ -2132,16 +2175,16 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E40" t="s">
@@ -2176,16 +2219,16 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E41" t="s">
@@ -2220,16 +2263,16 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E42" t="s">
@@ -2264,16 +2307,16 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E43" t="s">
@@ -2308,16 +2351,16 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E44" t="s">
@@ -2352,16 +2395,16 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E45" t="s">
@@ -2396,16 +2439,16 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E46" t="s">
@@ -2440,16 +2483,16 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E47" t="s">
@@ -2484,16 +2527,16 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E48" t="s">
@@ -2528,16 +2571,16 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E49" t="s">
@@ -2572,16 +2615,16 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E50" t="s">
@@ -2616,16 +2659,16 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E51" t="s">
@@ -2660,16 +2703,16 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E52" t="s">
@@ -2704,16 +2747,16 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E53" t="s">
@@ -2748,12 +2791,16 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="J54" t="s">
         <v>14</v>
       </c>
@@ -2762,12 +2809,16 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="1"/>
       <c r="J55" t="s">
         <v>14</v>
       </c>
@@ -2776,16 +2827,16 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E56" t="s">
@@ -2820,16 +2871,16 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E57" t="s">
@@ -2864,16 +2915,16 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E58" t="s">
@@ -2908,16 +2959,16 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E59" t="s">
@@ -2952,16 +3003,16 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E60" t="s">
@@ -2996,16 +3047,16 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E61" t="s">
@@ -3040,16 +3091,16 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E62" t="s">
@@ -3084,16 +3135,16 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E63" t="s">
@@ -3128,16 +3179,16 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E64" t="s">
@@ -3172,16 +3223,16 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E65" t="s">
@@ -3216,16 +3267,16 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E66" t="s">
@@ -3260,16 +3311,16 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E67" t="s">
@@ -3304,16 +3355,16 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E68" t="s">
@@ -3348,16 +3399,16 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E69" t="s">
@@ -3392,16 +3443,16 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E70" t="s">
@@ -3436,16 +3487,16 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E71" t="s">
@@ -3480,12 +3531,16 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1"/>
       <c r="F72">
         <v>1</v>
       </c>
@@ -3497,16 +3552,16 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E73" t="s">
@@ -3541,16 +3596,16 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E74" t="s">
@@ -3585,16 +3640,16 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E75" t="s">
@@ -3629,12 +3684,16 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1"/>
       <c r="J76" t="s">
         <v>14</v>
       </c>
@@ -3643,12 +3702,16 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="1"/>
       <c r="J77" t="s">
         <v>14</v>
       </c>
@@ -3657,12 +3720,16 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="1"/>
       <c r="J78" t="s">
         <v>13</v>
       </c>
@@ -3671,12 +3738,16 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="1"/>
       <c r="J79" t="s">
         <v>14</v>
       </c>
@@ -3685,12 +3756,16 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="1"/>
       <c r="J80" t="s">
         <v>13</v>
       </c>
@@ -3699,12 +3774,16 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="1"/>
       <c r="J81" t="s">
         <v>14</v>
       </c>
@@ -3713,12 +3792,16 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="1"/>
       <c r="J82" t="s">
         <v>13</v>
       </c>
@@ -3727,30 +3810,58 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>20</v>
+      </c>
       <c r="J83" t="s">
         <v>14</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E84" t="s">
@@ -3785,16 +3896,16 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E85" t="s">
@@ -3829,16 +3940,16 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="B86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E86" t="s">
@@ -3873,16 +3984,16 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E87" t="s">
@@ -3917,16 +4028,16 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E88" t="s">
@@ -3961,16 +4072,16 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E89" t="s">
@@ -4005,16 +4116,16 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="B90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E90" t="s">
@@ -4049,16 +4160,16 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E91" t="s">
@@ -4093,16 +4204,16 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E92" t="s">
@@ -4137,16 +4248,16 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="B93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E93" t="s">
@@ -4181,16 +4292,16 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="B94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E94" t="s">
@@ -4225,16 +4336,16 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E95" t="s">
@@ -4269,16 +4380,16 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="B96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E96" t="s">
@@ -4313,16 +4424,16 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="B97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E97" t="s">

--- a/data/final_data/de-identified_data.xlsx
+++ b/data/final_data/de-identified_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahgross/Desktop/W241/Final Project/Olive_Oil_Taste_Test/data/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8878DA2-FF43-3F42-883E-67340BFEB32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8109B87-A5B9-3143-BCC1-29F89329EB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
   </bookViews>
@@ -544,10 +544,10 @@
   <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2149,6 +2149,9 @@
       <c r="E39" t="s">
         <v>29</v>
       </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -3541,9 +3544,6 @@
         <v>46</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="F72">
-        <v>1</v>
-      </c>
       <c r="J72" t="s">
         <v>13</v>
       </c>

--- a/data/final_data/de-identified_data.xlsx
+++ b/data/final_data/de-identified_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahgross/Desktop/W241/Final Project/Olive_Oil_Taste_Test/data/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8109B87-A5B9-3143-BCC1-29F89329EB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C025FB56-87D4-9A4B-A59F-FA643BF083CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
   </bookViews>
@@ -175,13 +175,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>Burundi</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -1145,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
@@ -1409,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -1585,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1"/>
       <c r="J24" t="s">
@@ -1603,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1"/>
       <c r="J25" t="s">
@@ -1621,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1"/>
       <c r="J26" t="s">
@@ -1639,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1"/>
       <c r="J27" t="s">
@@ -2801,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="1"/>
       <c r="J54" t="s">
@@ -2819,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" s="1"/>
       <c r="J55" t="s">
@@ -3541,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D72" s="1"/>
       <c r="J72" t="s">
@@ -3691,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D76" s="1"/>
       <c r="J76" t="s">
@@ -3709,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D77" s="1"/>
       <c r="J77" t="s">
@@ -3727,7 +3727,7 @@
         <v>11</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D78" s="1"/>
       <c r="J78" t="s">
@@ -3745,7 +3745,7 @@
         <v>11</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D79" s="1"/>
       <c r="J79" t="s">
@@ -3763,7 +3763,7 @@
         <v>11</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D80" s="1"/>
       <c r="J80" t="s">
@@ -3781,7 +3781,7 @@
         <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81" s="1"/>
       <c r="J81" t="s">
@@ -3799,7 +3799,7 @@
         <v>11</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" s="1"/>
       <c r="J82" t="s">
@@ -3817,7 +3817,7 @@
         <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" t="s">
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I83" t="s">
         <v>20</v>
@@ -4343,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>20</v>
